--- a/NEURO_ExampleMacro.xlsx
+++ b/NEURO_ExampleMacro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mackilloplab/MRI-Studies/NeuroAlcMRI/Papers/Molly_AUC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9C5E91-6E36-C841-944C-9306D4BAC5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26C205CC-D5F1-DF4A-A9B4-4580CBCD0257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="10400" windowWidth="22800" windowHeight="16940" activeTab="1" xr2:uid="{8FD9CF63-A484-8D41-9364-E098FFE43BF7}"/>
+    <workbookView xWindow="4480" yWindow="3400" windowWidth="22800" windowHeight="16940" activeTab="4" xr2:uid="{8FD9CF63-A484-8D41-9364-E098FFE43BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Values" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Validation Example" sheetId="3" r:id="rId4"/>
     <sheet name="Other Probs" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>Pre Cue Craving</t>
   </si>
@@ -109,13 +109,16 @@
   </si>
   <si>
     <t>Measure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Threshold </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -169,6 +172,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -196,7 +211,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -273,17 +288,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -292,7 +296,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -302,7 +305,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -312,11 +314,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -344,36 +348,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -710,7 +684,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -720,28 +694,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="27" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="27" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="18">
+        <v>5.75</v>
+      </c>
     </row>
     <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="18">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -752,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FA6143-F3D7-C34D-8603-8E84590B79DE}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -763,59 +741,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="C2">
         <f>'Raw Values'!B2</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="11">
+        <v>5.75</v>
+      </c>
+      <c r="D2" s="10">
         <f>B2*C2</f>
-        <v>0</v>
+        <v>3.5190000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="C3">
         <f>'Raw Values'!B3</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="11">
+        <v>17</v>
+      </c>
+      <c r="D3" s="10">
         <f>B3*C3</f>
-        <v>0</v>
+        <v>6.0009999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6">
-        <v>-3.4390000000000001</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="13">
-        <v>-3.4390000000000001</v>
+      <c r="B4" s="5">
+        <v>-4.5339999999999998</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5">
+        <v>-4.5339999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -824,51 +802,51 @@
       </c>
       <c r="D5">
         <f>SUM(D2:D4)</f>
-        <v>-3.4390000000000001</v>
+        <v>4.9859999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f>EXP(D5)</f>
-        <v>3.2096766050876746E-2</v>
+        <v>146.34985172734417</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <f>D6/(1+D6)</f>
-        <v>3.1098601513585747E-2</v>
+        <v>0.99321343056489531</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="15">
-        <v>0.46497490000000002</v>
+      <c r="B11" s="20">
+        <v>0.4107769</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="16" t="str">
+      <c r="B12" s="14" t="str">
         <f>IF(D7&gt;B11,"AUD","NON-AUD")</f>
-        <v>NON-AUD</v>
+        <v>AUD</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="17" t="s">
         <v>20</v>
       </c>
     </row>
@@ -908,7 +886,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -942,7 +920,7 @@
         <v>17</v>
       </c>
       <c r="D2">
-        <v>0.98972000000000004</v>
+        <v>0.99324000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -956,7 +934,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0.14602999999999999</v>
+        <v>0.14147999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -968,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B292B4D4-91F4-EA49-8E74-E10DA33B8E95}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -983,19 +961,19 @@
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1004,19 +982,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.88700000000000001</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F2">
-        <v>0.25600000000000001</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J2">
-        <v>0.67200000000000004</v>
+        <v>0.68799999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1024,19 +1002,19 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.27100000000000002</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F3">
-        <v>0.22500000000000001</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J3">
-        <v>0.23599999999999999</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1044,31 +1022,42 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-5.4710000000000001</v>
+        <v>-6.0140000000000002</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F4">
-        <v>-5.3170000000000002</v>
+        <v>-6.7889999999999997</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0.60325240000000002</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J5">
-        <v>-6.7539999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I6" s="1"/>
+        <v>-8.2149999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0.59762119999999996</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
